--- a/front/src/assets/Calculatrice_de_ventilation_du_temps_par_activité_A-JUST_MAG_et_GRF.xlsx
+++ b/front/src/assets/Calculatrice_de_ventilation_du_temps_par_activité_A-JUST_MAG_et_GRF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmarcade\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3226AA84-9E60-4122-AB4E-0AB28DC168BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDEF94F-B1D4-479B-9B26-FD3BD2F44018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{F5E75FD0-8D4A-4F41-B6C7-77BCC38AF8C3}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{F5E75FD0-8D4A-4F41-B6C7-77BCC38AF8C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Magistrats" sheetId="3" r:id="rId1"/>
@@ -2456,7 +2456,7 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="B1:J19"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2706,7 +2706,7 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="B1:J19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -2920,7 +2920,7 @@
       <c r="D19" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pFsOJ9c/JcPmRZhkI7LJc84MVV52VK8/PsOD5dFkj5hjCpdZlaRw17Ia5k2bsxJSCUEK0mlHTqrzvy+bVlQztA==" saltValue="gack2rzWm5l67CHyGbdAtw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xRHkrPVKkhuRjV5u2xVaW4HZXUe0clHppbAfBQ5iIJFNEE4Gbw4lYoNTH/CilznojGL+pTtz514JcRKZOgFmhg==" saltValue="2QeW7OiIyb8W0A7ku4nALg==" spinCount="100000" sheet="1" objects="1" selectLockedCells="1"/>
   <mergeCells count="8">
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="H7:H8"/>
@@ -2959,8 +2959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8A2146-06E3-4AF5-B8DE-4E238C679E51}">
   <dimension ref="B1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/front/src/assets/Calculatrice_de_ventilation_du_temps_par_activité_A-JUST_MAG_et_GRF.xlsx
+++ b/front/src/assets/Calculatrice_de_ventilation_du_temps_par_activité_A-JUST_MAG_et_GRF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmarcade\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulm\Documents\Pro\PPME\beta.gouv.fr\A-JUST\Construction\Produit\Calculatrice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDEF94F-B1D4-479B-9B26-FD3BD2F44018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67F9286-42BD-4535-83C9-CFCFB962BC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{F5E75FD0-8D4A-4F41-B6C7-77BCC38AF8C3}"/>
+    <workbookView xWindow="6825" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{F5E75FD0-8D4A-4F41-B6C7-77BCC38AF8C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Magistrats" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="65">
   <si>
     <t>Temps de travail d'un magistrat</t>
   </si>
@@ -250,18 +250,6 @@
     <t>heures / an</t>
   </si>
   <si>
-    <t>jours / mois</t>
-  </si>
-  <si>
-    <t>heures / mois</t>
-  </si>
-  <si>
-    <t>jours / semaine</t>
-  </si>
-  <si>
-    <t>heures / semaine</t>
-  </si>
-  <si>
     <t>jours / an</t>
   </si>
   <si>
@@ -283,10 +271,37 @@
     <t>ou encore à</t>
   </si>
   <si>
-    <t>Sur la base de</t>
-  </si>
-  <si>
-    <t>(sélectionner la catégorie dans le menu déroulant)</t>
+    <t>(renseigner 100% pour un temps plein, 80% pour un 4/5ème, 60% pour un 3/5ème, etc.)</t>
+  </si>
+  <si>
+    <t>(renseigner ici le % d'ETPT que vous souhaitez convertir en temps)</t>
+  </si>
+  <si>
+    <t>Si vous disposez du pourcentage d'ETPT que représente l'activité d'un agent et souhaitez savoir à quel temps annuel, mensuel ou hebdomadaire cela correspond, veuillez renseigner les champs indiqués en jaune.</t>
+  </si>
+  <si>
+    <t>(sélectionner la catégorie dans le menu déroulant qui apparaît en cliquant sur la case jaune)</t>
+  </si>
+  <si>
+    <t>La base de calcul d'un temps plein est :</t>
+  </si>
+  <si>
+    <t>jours / mois*</t>
+  </si>
+  <si>
+    <t>heures / mois*</t>
+  </si>
+  <si>
+    <t>jours / semaine**</t>
+  </si>
+  <si>
+    <t>heures / semaine**</t>
+  </si>
+  <si>
+    <t>** étant considérée comme une semaine : une semaine pleine de 5 jours travaillés</t>
+  </si>
+  <si>
+    <t>* étant considéré comme un mois : un douzième d'année, soit un mois moyen, congés payés déduits</t>
   </si>
 </sst>
 </file>
@@ -373,7 +388,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -513,13 +528,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -635,85 +739,108 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -758,8 +885,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2052,16 +2182,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>100012</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>510450</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>440971</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>515212</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>445733</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2113,8 +2243,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1047750</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2144,7 +2274,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1847850" cy="1847850"/>
+          <a:ext cx="1905000" cy="1847850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2157,9 +2287,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2197,7 +2327,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2303,7 +2433,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2445,7 +2575,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2506,10 +2636,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="29"/>
-      <c r="F4" s="74" t="s">
+      <c r="F4" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="75"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="1">
         <v>208</v>
       </c>
@@ -2518,10 +2648,10 @@
       </c>
     </row>
     <row r="5" spans="2:10" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="77"/>
+      <c r="G5" s="85"/>
       <c r="H5" s="42">
         <v>8</v>
       </c>
@@ -2534,26 +2664,26 @@
       <c r="G6" s="40"/>
     </row>
     <row r="7" spans="2:10" ht="69.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="80" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="19"/>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="71"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="69" t="s">
+      <c r="H7" s="77" t="s">
         <v>20</v>
       </c>
       <c r="J7"/>
     </row>
     <row r="8" spans="2:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="73"/>
-      <c r="H8" s="70"/>
+      <c r="B8" s="81"/>
+      <c r="H8" s="78"/>
       <c r="J8"/>
     </row>
     <row r="9" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2590,7 +2720,7 @@
       <c r="J11"/>
     </row>
     <row r="12" spans="2:10" ht="69" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="80" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="37" t="s">
@@ -2605,11 +2735,11 @@
       <c r="J12"/>
     </row>
     <row r="13" spans="2:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="73"/>
+      <c r="B13" s="81"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="9"/>
-      <c r="G13" s="70" t="s">
+      <c r="G13" s="78" t="s">
         <v>21</v>
       </c>
       <c r="J13"/>
@@ -2623,7 +2753,7 @@
       <c r="E14" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="70"/>
+      <c r="G14" s="78"/>
     </row>
     <row r="15" spans="2:10" s="3" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="17"/>
@@ -2706,7 +2836,7 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="B1:J19"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -2743,12 +2873,12 @@
         <v>1</v>
       </c>
       <c r="D3" s="28"/>
-      <c r="F3" s="78" t="s">
+      <c r="F3" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="80"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="88"/>
       <c r="J3"/>
     </row>
     <row r="4" spans="2:10" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -2757,10 +2887,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="29"/>
-      <c r="F4" s="74" t="s">
+      <c r="F4" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="75"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="1">
         <v>1607</v>
       </c>
@@ -2769,10 +2899,10 @@
       </c>
     </row>
     <row r="5" spans="2:10" s="3" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="77"/>
+      <c r="G5" s="85"/>
       <c r="H5" s="39">
         <v>35</v>
       </c>
@@ -2787,26 +2917,26 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="69.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="80" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="19"/>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="71"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="69" t="s">
+      <c r="H7" s="77" t="s">
         <v>20</v>
       </c>
       <c r="J7"/>
     </row>
     <row r="8" spans="2:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="73"/>
-      <c r="H8" s="70"/>
+      <c r="B8" s="81"/>
+      <c r="H8" s="78"/>
       <c r="J8"/>
     </row>
     <row r="9" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2843,7 +2973,7 @@
       <c r="J11"/>
     </row>
     <row r="12" spans="2:10" ht="69" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="80" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="37" t="s">
@@ -2858,11 +2988,11 @@
       <c r="J12"/>
     </row>
     <row r="13" spans="2:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="73"/>
+      <c r="B13" s="81"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="9"/>
-      <c r="G13" s="70" t="s">
+      <c r="G13" s="78" t="s">
         <v>21</v>
       </c>
       <c r="J13"/>
@@ -2876,7 +3006,7 @@
       <c r="E14" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="70"/>
+      <c r="G14" s="78"/>
     </row>
     <row r="15" spans="2:10" s="3" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="17"/>
@@ -2957,190 +3087,223 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8A2146-06E3-4AF5-B8DE-4E238C679E51}">
-  <dimension ref="B1:H16"/>
+  <dimension ref="C1:I18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12" style="3" customWidth="1"/>
-    <col min="2" max="2" width="34.73046875" style="50" customWidth="1"/>
-    <col min="3" max="3" width="9" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.3984375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="5" style="43" customWidth="1"/>
-    <col min="6" max="6" width="6.73046875" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="11.3984375" style="3"/>
+    <col min="2" max="2" width="18.59765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="43.53125" style="75" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="3.9296875" style="50" customWidth="1"/>
+    <col min="7" max="7" width="6.73046875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.3984375" style="3"/>
+    <col min="9" max="9" width="22.265625" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="11.3984375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="3"/>
-      <c r="D1" s="3"/>
+    <row r="1" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C1" s="3"/>
       <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="2:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="53" t="s">
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="3:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+    </row>
+    <row r="3" spans="3:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="D3" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="90"/>
+      <c r="G3" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+    </row>
+    <row r="4" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C4" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="48" t="str">
+        <f>IF(D3="FONCTIONNAIRE","1607 h/an et 35h/semaine","208 jours/an et 8 h/jour")</f>
+        <v>208 jours/an et 8 h/jour</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="50"/>
+    </row>
+    <row r="5" spans="3:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C5" s="46"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="50"/>
+    </row>
+    <row r="6" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+    </row>
+    <row r="7" spans="3:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C7" s="46"/>
+      <c r="D7" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="67" t="s">
+      <c r="E7" s="51"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+    </row>
+    <row r="8" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="45"/>
+      <c r="E8" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+    </row>
+    <row r="9" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C9" s="46"/>
+      <c r="D9" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="51"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+    </row>
+    <row r="10" spans="3:9" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C10" s="46"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C11" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="58">
+        <f>IF(D3="MAGISTRAT",D6*D8*Listes!D3,D6*D8*Fonctionnaires!H4/7)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="61">
+        <f>IF(D3="FONCTIONNAIRE",D11*7,D11*8)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="62"/>
+    </row>
+    <row r="12" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C12" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="64">
+        <f>D11/12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="43"/>
-    </row>
-    <row r="3" spans="2:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="45" t="str">
-        <f>IF(C2="FONCTIONNAIRE","1607 h/an et 35h/semaine","208 jours/an et 8 h/jour")</f>
-        <v>208 jours/an et 8 h/jour</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="43"/>
-    </row>
-    <row r="4" spans="2:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="53"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="43"/>
-    </row>
-    <row r="5" spans="2:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-    </row>
-    <row r="6" spans="2:8" ht="9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="53"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-    </row>
-    <row r="7" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-    </row>
-    <row r="8" spans="2:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="53"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="57">
-        <f>IF(C2="MAGISTRAT",C5*C7*Listes!D3,C5*C7*Fonctionnaires!H4/7)</f>
+      <c r="F12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="65">
+        <f>IF(D4="FONCTIONNAIRE",D12*7,D12*8)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="59" t="s">
+      <c r="H12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="66"/>
+    </row>
+    <row r="13" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C13" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="60">
-        <f>IF(C2="FONCTIONNAIRE",C9*7,C9*8)</f>
+      <c r="D13" s="68">
+        <f>(D8*D6)*5</f>
         <v>0</v>
       </c>
-      <c r="G9" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="61"/>
-    </row>
-    <row r="10" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="62">
-        <f>C9/12</f>
+      <c r="E13" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="71">
+        <f>IF(D3="FONCTIONNAIRE",D13*7,D13*8)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="63">
-        <f>IF(C3="FONCTIONNAIRE",C10*7,C10*8)</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="64"/>
-    </row>
-    <row r="11" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="65">
-        <f>(C7*C5)*5</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="66">
-        <f>IF(C2="FONCTIONNAIRE",C11*7,C11*8)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="51"/>
-    </row>
-    <row r="13" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="51"/>
-    </row>
-    <row r="14" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="52"/>
-    </row>
-    <row r="15" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="49"/>
-    </row>
-    <row r="16" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="52"/>
+      <c r="H13" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="72"/>
+    </row>
+    <row r="14" spans="3:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C14" s="76" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C15" s="76" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C16" s="73"/>
+    </row>
+    <row r="17" spans="3:3" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C17" s="74"/>
+    </row>
+    <row r="18" spans="3:3" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C18" s="73"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+ISf4za+AaJBKs74Dfy3CJnv7LWqp9VRR/IWC+EzWJBaFzlJsFVMTNhWewhgGEXnFETlsC4lCyWbOCLicyEGAw==" saltValue="ZCX9bIM1Wit3Nx8S/VD1eA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="2">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G5:H7"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Gy5QNriGlaVHeAjPum4cM0C4+yAHxmDli0jwulpHKqegGEbXID+fQiRrC1N4zJrSKGFxFCw3CH18lQT24sk6Nw==" saltValue="wVeS2Y8bMsGjmNDXNpg93A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <mergeCells count="3">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3152,7 +3315,7 @@
           <x14:formula1>
             <xm:f>Listes!$A$15:$A$16</xm:f>
           </x14:formula1>
-          <xm:sqref>C2</xm:sqref>
+          <xm:sqref>D3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3309,13 +3472,13 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A15" s="55" t="s">
-        <v>54</v>
+      <c r="A15" s="44" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A16" s="55" t="s">
-        <v>55</v>
+      <c r="A16" s="44" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/front/src/assets/Calculatrice_de_ventilation_du_temps_par_activité_A-JUST_MAG_et_GRF.xlsx
+++ b/front/src/assets/Calculatrice_de_ventilation_du_temps_par_activité_A-JUST_MAG_et_GRF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulm\Documents\Pro\PPME\beta.gouv.fr\A-JUST\Construction\Produit\Calculatrice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmychevallier/Documents/GitHub/a-just/front/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67F9286-42BD-4535-83C9-CFCFB962BC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0AF893-C336-4D4C-BDBD-1A31BC86053E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6825" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{F5E75FD0-8D4A-4F41-B6C7-77BCC38AF8C3}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17840" xr2:uid="{F5E75FD0-8D4A-4F41-B6C7-77BCC38AF8C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Magistrats" sheetId="3" r:id="rId1"/>
@@ -309,10 +309,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -621,7 +621,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -644,7 +644,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -686,7 +686,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -725,7 +725,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
@@ -760,7 +760,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -772,7 +772,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -784,7 +784,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -793,7 +793,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -802,10 +802,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -814,7 +814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -823,16 +823,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -888,7 +888,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2590,22 +2590,22 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.265625" customWidth="1"/>
-    <col min="2" max="2" width="53.3984375" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="1.3984375" customWidth="1"/>
-    <col min="5" max="5" width="12.73046875" customWidth="1"/>
-    <col min="6" max="6" width="13.1328125" customWidth="1"/>
-    <col min="7" max="7" width="13.73046875" customWidth="1"/>
-    <col min="8" max="8" width="13.59765625" customWidth="1"/>
-    <col min="9" max="9" width="19.59765625" customWidth="1"/>
-    <col min="10" max="10" width="19.3984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="1.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="67.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:10" ht="6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:10" ht="68" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="21"/>
       <c r="C2" s="4"/>
       <c r="D2" s="13"/>
@@ -2615,7 +2615,7 @@
       <c r="I2" s="5"/>
       <c r="J2"/>
     </row>
-    <row r="3" spans="2:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>17</v>
       </c>
@@ -2630,7 +2630,7 @@
       <c r="I3" s="23"/>
       <c r="J3"/>
     </row>
-    <row r="4" spans="2:10" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:10" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="31"/>
       <c r="C4" s="32" t="s">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:10" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:10" s="3" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F5" s="84" t="s">
         <v>15</v>
       </c>
@@ -2659,11 +2659,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="20.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:10" ht="20.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
     </row>
-    <row r="7" spans="2:10" ht="69.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="80" t="s">
         <v>11</v>
       </c>
@@ -2681,12 +2681,12 @@
       </c>
       <c r="J7"/>
     </row>
-    <row r="8" spans="2:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:10" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="81"/>
       <c r="H8" s="78"/>
       <c r="J8"/>
     </row>
-    <row r="9" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="16" t="s">
         <v>16</v>
       </c>
@@ -2705,7 +2705,7 @@
       </c>
       <c r="J9"/>
     </row>
-    <row r="10" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="25"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
@@ -2715,11 +2715,11 @@
       <c r="H10" s="27"/>
       <c r="J10"/>
     </row>
-    <row r="11" spans="2:10" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:10" ht="7.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H11" s="2"/>
       <c r="J11"/>
     </row>
-    <row r="12" spans="2:10" ht="69" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:10" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="80" t="s">
         <v>12</v>
       </c>
@@ -2734,7 +2734,7 @@
       <c r="G12" s="5"/>
       <c r="J12"/>
     </row>
-    <row r="13" spans="2:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="81"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -2744,7 +2744,7 @@
       </c>
       <c r="J13"/>
     </row>
-    <row r="14" spans="2:10" s="3" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:10" s="3" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="17" t="s">
         <v>13</v>
       </c>
@@ -2755,14 +2755,14 @@
       </c>
       <c r="G14" s="78"/>
     </row>
-    <row r="15" spans="2:10" s="3" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10" s="3" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="17"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="2:10" s="3" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:10" s="3" customFormat="1" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="17" t="s">
         <v>9</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" s="3" customFormat="1" ht="8.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:7" s="3" customFormat="1" ht="8.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="18"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2784,20 +2784,20 @@
       <c r="F17" s="7"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
     </row>
-    <row r="19" spans="2:7" ht="9.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" ht="9.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nQ8joA74Rsh2Kx3Wfl1MFY2uo8GlElYBj87kqHVIo37r55P2tUu/gqoh5+2Pc6vWI/gF3F4U69Fb3n3B58JSQQ==" saltValue="TyXrh0FDS1+0gOHNSzrziQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Lyj2W2GyeQIrJn2bgKiLhdgJYX/Xhr08FTtM0bISqrAUbw2CdKJyK2FC+lhDUv4eFc5Cb9rxnyR2UaymjzGDtg==" saltValue="UJRMD4RxGk70iLeKfc2XqQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="7">
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="E7:F7"/>
@@ -2837,25 +2837,25 @@
   <dimension ref="B1:J19"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.265625" customWidth="1"/>
-    <col min="2" max="2" width="53.3984375" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="1.3984375" customWidth="1"/>
-    <col min="5" max="5" width="12.73046875" customWidth="1"/>
-    <col min="6" max="6" width="13.1328125" customWidth="1"/>
-    <col min="7" max="7" width="18.3984375" customWidth="1"/>
-    <col min="8" max="8" width="13.59765625" customWidth="1"/>
-    <col min="9" max="9" width="21.265625" customWidth="1"/>
-    <col min="10" max="10" width="19.3984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="1.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="69.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:10" ht="6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:10" ht="69.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="21"/>
       <c r="C2" s="4"/>
       <c r="D2" s="13"/>
@@ -2865,7 +2865,7 @@
       <c r="I2" s="5"/>
       <c r="J2"/>
     </row>
-    <row r="3" spans="2:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>24</v>
       </c>
@@ -2881,7 +2881,7 @@
       <c r="I3" s="88"/>
       <c r="J3"/>
     </row>
-    <row r="4" spans="2:10" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:10" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="31"/>
       <c r="C4" s="32" t="s">
         <v>18</v>
@@ -2898,7 +2898,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:10" s="3" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:10" s="3" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F5" s="84" t="s">
         <v>26</v>
       </c>
@@ -2910,13 +2910,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:10" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F6" s="40"/>
       <c r="I6" s="41" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="69.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="80" t="s">
         <v>11</v>
       </c>
@@ -2934,12 +2934,12 @@
       </c>
       <c r="J7"/>
     </row>
-    <row r="8" spans="2:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:10" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="81"/>
       <c r="H8" s="78"/>
       <c r="J8"/>
     </row>
-    <row r="9" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="16" t="s">
         <v>16</v>
       </c>
@@ -2958,7 +2958,7 @@
       </c>
       <c r="J9"/>
     </row>
-    <row r="10" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="25"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
@@ -2968,11 +2968,11 @@
       <c r="H10" s="27"/>
       <c r="J10"/>
     </row>
-    <row r="11" spans="2:10" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:10" ht="7.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H11" s="2"/>
       <c r="J11"/>
     </row>
-    <row r="12" spans="2:10" ht="69" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:10" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="80" t="s">
         <v>31</v>
       </c>
@@ -2987,7 +2987,7 @@
       <c r="G12" s="5"/>
       <c r="J12"/>
     </row>
-    <row r="13" spans="2:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="81"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="J13"/>
     </row>
-    <row r="14" spans="2:10" s="3" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:10" s="3" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="17" t="s">
         <v>33</v>
       </c>
@@ -3008,14 +3008,14 @@
       </c>
       <c r="G14" s="78"/>
     </row>
-    <row r="15" spans="2:10" s="3" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10" s="3" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="17"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="2:10" s="3" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:10" s="3" customFormat="1" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="17" t="s">
         <v>34</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" s="3" customFormat="1" ht="8.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:7" s="3" customFormat="1" ht="8.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="18"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -3037,20 +3037,20 @@
       <c r="F17" s="7"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
     </row>
-    <row r="19" spans="2:7" ht="9.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" ht="9.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xRHkrPVKkhuRjV5u2xVaW4HZXUe0clHppbAfBQ5iIJFNEE4Gbw4lYoNTH/CilznojGL+pTtz514JcRKZOgFmhg==" saltValue="2QeW7OiIyb8W0A7ku4nALg==" spinCount="100000" sheet="1" objects="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JMLgxVB73JREIu3KhKbahhzuePsW7k994qKvRNaFBc1SUYfW0e9IJK0+5JFSvfneZrJFtEsoROwJXAnwO1pqhw==" saltValue="qoybIwDUU/wNqW8rSWnCuA==" spinCount="100000" sheet="1" objects="1" selectLockedCells="1"/>
   <mergeCells count="8">
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="H7:H8"/>
@@ -3090,29 +3090,29 @@
   <dimension ref="C1:I18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.59765625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="43.53125" style="75" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="43.5" style="75" customWidth="1"/>
     <col min="4" max="4" width="9" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="3.9296875" style="50" customWidth="1"/>
-    <col min="7" max="7" width="6.73046875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.3984375" style="3"/>
-    <col min="9" max="9" width="22.265625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="11.3984375" style="3"/>
+    <col min="5" max="5" width="14.33203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="4" style="50" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="3"/>
+    <col min="9" max="9" width="22.33203125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="11.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="3:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="91" t="s">
         <v>56</v>
       </c>
@@ -3123,7 +3123,7 @@
       <c r="H2" s="91"/>
       <c r="I2" s="91"/>
     </row>
-    <row r="3" spans="3:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="46" t="s">
         <v>41</v>
       </c>
@@ -3137,7 +3137,7 @@
       <c r="H3" s="92"/>
       <c r="I3" s="92"/>
     </row>
-    <row r="4" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="47" t="s">
         <v>58</v>
       </c>
@@ -3149,14 +3149,14 @@
       <c r="F4" s="49"/>
       <c r="G4" s="50"/>
     </row>
-    <row r="5" spans="3:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="46"/>
       <c r="D5" s="48"/>
       <c r="E5" s="3"/>
       <c r="F5" s="12"/>
       <c r="G5" s="50"/>
     </row>
-    <row r="6" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="46" t="s">
         <v>48</v>
       </c>
@@ -3169,7 +3169,7 @@
       <c r="H6" s="52"/>
       <c r="I6" s="52"/>
     </row>
-    <row r="7" spans="3:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:9" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="46"/>
       <c r="D7" s="53" t="s">
         <v>54</v>
@@ -3180,7 +3180,7 @@
       <c r="H7" s="52"/>
       <c r="I7" s="52"/>
     </row>
-    <row r="8" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="46" t="s">
         <v>43</v>
       </c>
@@ -3193,7 +3193,7 @@
       <c r="H8" s="52"/>
       <c r="I8" s="52"/>
     </row>
-    <row r="9" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="46"/>
       <c r="D9" s="55" t="s">
         <v>55</v>
@@ -3204,13 +3204,13 @@
       <c r="H9" s="52"/>
       <c r="I9" s="52"/>
     </row>
-    <row r="10" spans="3:9" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="46"/>
       <c r="D10" s="56"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="57" t="s">
         <v>45</v>
       </c>
@@ -3233,7 +3233,7 @@
       </c>
       <c r="I11" s="62"/>
     </row>
-    <row r="12" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="63" t="s">
         <v>52</v>
       </c>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="I12" s="66"/>
     </row>
-    <row r="13" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="67" t="s">
         <v>53</v>
       </c>
@@ -3279,23 +3279,23 @@
       </c>
       <c r="I13" s="72"/>
     </row>
-    <row r="14" spans="3:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:9" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="76" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="3:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:9" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="76" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="73"/>
     </row>
-    <row r="17" spans="3:3" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="74"/>
     </row>
-    <row r="18" spans="3:3" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="73"/>
     </row>
   </sheetData>
@@ -3332,14 +3332,14 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>5</v>
       </c>
@@ -3400,12 +3400,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3415,7 +3415,7 @@
       </c>
       <c r="D9" s="38"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>229.57142857142858</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>45.914285714285711</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="38"/>
       <c r="C13" t="s">
         <v>5</v>
@@ -3471,17 +3471,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="44" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="e1jtadQkx9qfkHcRZsTZ1UaMTku6yqeLXWIU9HKCaUf/AXherKTmdM4TzDBiKbY57yyzh5107OL8N/7LrldLtQ==" saltValue="SBV2M9wOVAgZQDXq/zdeTQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/front/src/assets/Calculatrice_de_ventilation_du_temps_par_activité_A-JUST_MAG_et_GRF.xlsx
+++ b/front/src/assets/Calculatrice_de_ventilation_du_temps_par_activité_A-JUST_MAG_et_GRF.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmychevallier/Documents/GitHub/a-just/front/src/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulm\Documents\Pro\PPME\beta.gouv.fr\A-JUST\Construction\Produit\Calculatrice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0AF893-C336-4D4C-BDBD-1A31BC86053E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1064FD06-7239-40BA-B921-E1A4B3A10E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17840" xr2:uid="{F5E75FD0-8D4A-4F41-B6C7-77BCC38AF8C3}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{F5E75FD0-8D4A-4F41-B6C7-77BCC38AF8C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Magistrats" sheetId="3" r:id="rId1"/>
     <sheet name="Fonctionnaires" sheetId="4" r:id="rId2"/>
-    <sheet name="Reconvertir un pourcentage" sheetId="5" r:id="rId3"/>
-    <sheet name="Listes" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="Reconvertir un % d'ETP en temps" sheetId="5" r:id="rId3"/>
+    <sheet name="Convertir des ETPT en audiences" sheetId="7" r:id="rId4"/>
+    <sheet name="Listes" sheetId="2" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="80">
   <si>
     <t>Temps de travail d'un magistrat</t>
   </si>
@@ -303,18 +304,213 @@
   <si>
     <t>* étant considéré comme un mois : un douzième d'année, soit un mois moyen, congés payés déduits</t>
   </si>
+  <si>
+    <t>ETPT</t>
+  </si>
+  <si>
+    <t>qui tenaient</t>
+  </si>
+  <si>
+    <t>(sélectionner la fréquence dans le menu déroulant qui apparaît en cliquant sur la case jaune)</t>
+  </si>
+  <si>
+    <t>ETPT*</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jusqu'ici</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, pour ce contentieux,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> je mobilisais</t>
+    </r>
+  </si>
+  <si>
+    <t>à ce contentieux</t>
+  </si>
+  <si>
+    <t>* ETPT dont l'activité, et particulièrement le temps consacré aux audiences, serait similaire à ceux affectés précédemment.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ce qui </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>devrait permettre,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> proportionnellement, de tenir</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">soit un </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>total</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cette méthode est bien entendu très approximative et ne tient par exemple pas compte de la complexité de la création d'audiences supplémentaires (disponibilité des salles, des effectifs de greffe ou de magistrats habilités à présider des audiences...). Elle ne fait qu'appliquer une règle de proportionnalité : </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Si, jusqu'à maintenant, xx ETPT affectés à un contentieux permettaient de tenir X audiences, alors, l'affectation de yy ETPT devrait permettre d'envisager la tenue de Y audiences.</t>
+    </r>
+  </si>
+  <si>
+    <t>Si vous envisagez d'affecter des effectifs supplémentaires à un contentieux ou, au contraire, devez limiter les ETPT s'y consacrant, 
+nous vous proposons 1 méthode simple  pour estimer le nombre d'audiences qui pourraient être tenues par la nouvelle équipe.</t>
+  </si>
+  <si>
+    <r>
+      <t>Dans cette simulation, j'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">envisage </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">d'affecter à ce </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>contentieux</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">renseigner les cases jaunes </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dans ma simulation, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>je prévois donc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> d'affecter </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> au total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,8 +569,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,8 +615,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF09FF78"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -476,154 +710,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -644,14 +737,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -686,7 +773,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -710,141 +797,274 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -877,19 +1097,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -899,6 +1124,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF09FF78"/>
+      <color rgb="FF00F66F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -921,9 +1152,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>678102</xdr:colOff>
+      <xdr:colOff>678098</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>7587</xdr:rowOff>
+      <xdr:rowOff>7583</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -974,9 +1205,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>220930</xdr:colOff>
+      <xdr:colOff>220926</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>9493</xdr:rowOff>
+      <xdr:rowOff>9489</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1021,15 +1252,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>358137</xdr:colOff>
+      <xdr:colOff>366706</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>32383</xdr:rowOff>
+      <xdr:rowOff>131441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>792420</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>39025</xdr:rowOff>
+      <xdr:colOff>792414</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7588</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1061,8 +1292,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9204957" y="2486023"/>
-          <a:ext cx="426683" cy="821983"/>
+          <a:off x="9434506" y="3293741"/>
+          <a:ext cx="427616" cy="811505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1080,7 +1311,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>615272</xdr:colOff>
+      <xdr:colOff>615268</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>419100</xdr:rowOff>
     </xdr:to>
@@ -1133,7 +1364,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>657144</xdr:colOff>
+      <xdr:colOff>657140</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>419100</xdr:rowOff>
     </xdr:to>
@@ -1186,7 +1417,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>639084</xdr:colOff>
+      <xdr:colOff>639080</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>342847</xdr:rowOff>
     </xdr:to>
@@ -1238,7 +1469,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>20955</xdr:rowOff>
@@ -1322,7 +1553,7 @@
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1377301</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>670541</xdr:rowOff>
@@ -1500,9 +1731,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1847850</xdr:colOff>
+      <xdr:colOff>1852605</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>161921</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1555,9 +1786,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>671415</xdr:colOff>
+      <xdr:colOff>669489</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>5674</xdr:rowOff>
+      <xdr:rowOff>6616</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1608,9 +1839,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>214243</xdr:colOff>
+      <xdr:colOff>212317</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>7580</xdr:rowOff>
+      <xdr:rowOff>8522</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1655,15 +1886,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>358137</xdr:colOff>
+      <xdr:colOff>405761</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>32383</xdr:rowOff>
+      <xdr:rowOff>107630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>785733</xdr:colOff>
+      <xdr:colOff>830483</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>39024</xdr:rowOff>
+      <xdr:rowOff>115224</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1695,8 +1926,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9440225" y="2485071"/>
-          <a:ext cx="425716" cy="821030"/>
+          <a:off x="9473561" y="3422330"/>
+          <a:ext cx="422821" cy="822934"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1714,7 +1945,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>618122</xdr:colOff>
+      <xdr:colOff>619064</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>419100</xdr:rowOff>
     </xdr:to>
@@ -1767,7 +1998,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>655232</xdr:colOff>
+      <xdr:colOff>656174</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>419100</xdr:rowOff>
     </xdr:to>
@@ -1820,9 +2051,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>640982</xdr:colOff>
+      <xdr:colOff>640019</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>342846</xdr:rowOff>
+      <xdr:rowOff>364752</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1872,7 +2103,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>20955</xdr:rowOff>
@@ -1956,7 +2187,7 @@
       <xdr:rowOff>219053</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1363958</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>694352</xdr:rowOff>
@@ -2134,9 +2365,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1847850</xdr:colOff>
+      <xdr:colOff>1849734</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>135234</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2166,7 +2397,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1847850" cy="1847850"/>
+          <a:ext cx="1851660" cy="1866900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2189,9 +2420,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>515212</xdr:colOff>
+      <xdr:colOff>517094</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>445733</xdr:rowOff>
+      <xdr:rowOff>451437</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2242,9 +2473,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:colOff>1049632</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>181916</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2275,6 +2506,167 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="1905000" cy="1847850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>60007</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>51403</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>655309</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB5DD342-154A-47AE-B83E-9A4DE4C8C1E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="60007" y="0"/>
+          <a:ext cx="1538256" cy="1478280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>100007</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>214072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>601966</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>5702</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Graphique 1" descr="Jouer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A6D8287-765F-4C02-B462-1CF623E55EBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6419727" y="1628652"/>
+          <a:ext cx="326944" cy="500063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3802374</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>15241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66638</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>482399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Graphique 3" descr="Jouer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42E565DA-270E-4BE0-B6F7-696063E5D3B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6600109" y="3145866"/>
+          <a:ext cx="463356" cy="922945"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2584,222 +2976,247 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F397B1C1-42FB-48AE-9FA7-0EC11F273BC4}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="B1:J19"/>
+  <dimension ref="B1:L19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" customWidth="1"/>
-    <col min="2" max="2" width="53.33203125" customWidth="1"/>
+    <col min="1" max="1" width="33.265625" customWidth="1"/>
+    <col min="2" max="2" width="53.3984375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="1.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" customWidth="1"/>
-    <col min="7" max="7" width="25.83203125" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="1.3984375" customWidth="1"/>
+    <col min="5" max="5" width="12.73046875" customWidth="1"/>
+    <col min="6" max="6" width="13.1328125" customWidth="1"/>
+    <col min="7" max="7" width="13.73046875" customWidth="1"/>
+    <col min="8" max="8" width="1.265625" customWidth="1"/>
+    <col min="9" max="9" width="13.59765625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="1" customWidth="1"/>
+    <col min="11" max="11" width="12.265625" customWidth="1"/>
+    <col min="12" max="12" width="19.3984375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="68" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="21"/>
+    <row r="1" spans="2:12" ht="67.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="19"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="13"/>
-      <c r="F2" s="21"/>
+      <c r="D2" s="11"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
-      <c r="J2"/>
-    </row>
-    <row r="3" spans="2:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="30" t="s">
+      <c r="I2" s="78"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="5"/>
+      <c r="L2"/>
+    </row>
+    <row r="3" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="34">
-        <v>1</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="F3" s="20" t="s">
+      <c r="C3" s="114"/>
+      <c r="D3" s="26"/>
+      <c r="F3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="I3" s="23"/>
-      <c r="J3"/>
-    </row>
-    <row r="4" spans="2:10" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="31"/>
-      <c r="C4" s="32" t="s">
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="K3" s="21"/>
+      <c r="L3"/>
+    </row>
+    <row r="4" spans="2:12" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="29"/>
+      <c r="C4" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="F4" s="82" t="s">
+      <c r="D4" s="27"/>
+      <c r="F4" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="83"/>
-      <c r="H4" s="1">
+      <c r="G4" s="127"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="2">
         <v>208</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="J4" s="1"/>
+      <c r="K4" s="21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:10" s="3" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F5" s="84" t="s">
+    <row r="5" spans="2:12" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F5" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="85"/>
-      <c r="H5" s="42">
+      <c r="G5" s="129"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="6">
         <v>8</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="J5" s="37"/>
+      <c r="K5" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="20.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-    </row>
-    <row r="7" spans="2:10" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="80" t="s">
+    <row r="6" spans="2:12" ht="20.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+    </row>
+    <row r="7" spans="2:12" ht="69.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="79" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="79"/>
+      <c r="F7" s="123"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="77" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="J7"/>
-    </row>
-    <row r="8" spans="2:10" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="81"/>
-      <c r="H8" s="78"/>
-      <c r="J8"/>
-    </row>
-    <row r="9" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="16" t="s">
+      <c r="J7" s="69"/>
+      <c r="L7"/>
+    </row>
+    <row r="8" spans="2:12" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="125"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="70"/>
+      <c r="L8"/>
+    </row>
+    <row r="9" spans="2:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="36" t="s">
+      <c r="C9" s="115"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="75" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="24">
-        <f>(C9*(VLOOKUP(E9,Listes!$A$2:$B$5,2,FALSE))*VLOOKUP(F9,Listes!$C$2:$D$6,2,FALSE))/($H$4*$C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="J9"/>
-    </row>
-    <row r="10" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27"/>
-      <c r="J10"/>
-    </row>
-    <row r="11" spans="2:10" ht="7.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H11" s="2"/>
-      <c r="J11"/>
-    </row>
-    <row r="12" spans="2:10" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="80" t="s">
+      <c r="H9" s="3"/>
+      <c r="I9" s="80" t="str">
+        <f>IF($C$3="","",(C9*(VLOOKUP(E9,Listes!$A$2:$B$5,2,FALSE))*VLOOKUP(F9,Listes!$C$2:$D$6,2,FALSE))/($I$4*$C$3))</f>
+        <v/>
+      </c>
+      <c r="J9" s="76"/>
+      <c r="L9"/>
+    </row>
+    <row r="10" spans="2:12" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="25"/>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="2:12" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J11" s="2"/>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="2:12" ht="69" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="37" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="32" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
-      <c r="J12"/>
-    </row>
-    <row r="13" spans="2:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="81"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9"/>
-      <c r="G13" s="78" t="s">
+      <c r="G12" s="78"/>
+      <c r="H12" s="5"/>
+      <c r="L12"/>
+    </row>
+    <row r="13" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="125"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="73"/>
+      <c r="G13" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="J13"/>
-    </row>
-    <row r="14" spans="2:10" s="3" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="17" t="s">
+      <c r="H13" s="70"/>
+      <c r="L13"/>
+    </row>
+    <row r="14" spans="2:12" s="3" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="36" t="s">
+      <c r="C14" s="115"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="78"/>
-    </row>
-    <row r="15" spans="2:10" s="3" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="17"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="2:10" s="3" customFormat="1" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="17" t="s">
+      <c r="G14" s="122"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="2:12" s="3" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="15"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="2:12" s="3" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="36" t="s">
+      <c r="C16" s="115"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="24">
-        <f>(C14*VLOOKUP(E14,Listes!A2:B5,2,FALSE))*C16*VLOOKUP(E16,Listes!C2:D6,2,FALSE)/($H$4*$C$3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" s="3" customFormat="1" ht="8.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="18"/>
+      <c r="G16" s="80" t="str">
+        <f>IF($C$3="","",(C14*VLOOKUP(E14,Listes!A2:B5,2,FALSE))*C16*VLOOKUP(E16,Listes!C2:D6,2,FALSE)/($I$4*$C$3))</f>
+        <v/>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="2:9" s="3" customFormat="1" ht="8.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="16"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="33" t="s">
+      <c r="G17" s="79"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="2:7" ht="9.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="2:9" ht="9.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Lyj2W2GyeQIrJn2bgKiLhdgJYX/Xhr08FTtM0bISqrAUbw2CdKJyK2FC+lhDUv4eFc5Cb9rxnyR2UaymjzGDtg==" saltValue="UJRMD4RxGk70iLeKfc2XqQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JzKkPoWrFIuwfJWpFP3NYujaKU7BurhH/QVqkU0P6YL1yI25qRo18JzA1+CfzfRZncExbTYNxJYcWXMq1AujTw==" saltValue="ohH2lfEZAiPd/1xmSNkFMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="7">
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B12:B13"/>
@@ -2834,226 +3251,252 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AC8D38-7FA4-425B-A79C-21748CE3E727}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="B1:J19"/>
+  <dimension ref="B1:L19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" customWidth="1"/>
-    <col min="2" max="2" width="53.33203125" customWidth="1"/>
+    <col min="1" max="1" width="33.265625" customWidth="1"/>
+    <col min="2" max="2" width="53.3984375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="1.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" customWidth="1"/>
-    <col min="7" max="7" width="25.83203125" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="1.3984375" customWidth="1"/>
+    <col min="5" max="5" width="12.73046875" customWidth="1"/>
+    <col min="6" max="6" width="13.1328125" customWidth="1"/>
+    <col min="7" max="7" width="17.46484375" customWidth="1"/>
+    <col min="8" max="8" width="1.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.59765625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="1.33203125" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" customWidth="1"/>
+    <col min="12" max="12" width="19.3984375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="69.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="21"/>
+    <row r="1" spans="2:12" ht="69.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="19"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="13"/>
-      <c r="F2" s="21"/>
+      <c r="D2" s="11"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
-      <c r="J2"/>
-    </row>
-    <row r="3" spans="2:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="30" t="s">
+      <c r="I2" s="78"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="5"/>
+      <c r="L2"/>
+    </row>
+    <row r="3" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="34">
-        <v>1</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="F3" s="86" t="s">
+      <c r="C3" s="114"/>
+      <c r="D3" s="26"/>
+      <c r="F3" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="88"/>
-      <c r="J3"/>
-    </row>
-    <row r="4" spans="2:10" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="31"/>
-      <c r="C4" s="32" t="s">
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="132"/>
+      <c r="L3"/>
+    </row>
+    <row r="4" spans="2:12" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="29"/>
+      <c r="C4" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="F4" s="82" t="s">
+      <c r="D4" s="27"/>
+      <c r="F4" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="83"/>
-      <c r="H4" s="1">
+      <c r="G4" s="127"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="10">
         <v>1607</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="J4" s="1"/>
+      <c r="K4" s="90" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:10" s="3" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F5" s="84" t="s">
+    <row r="5" spans="2:12" s="3" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F5" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="85"/>
-      <c r="H5" s="39">
+      <c r="G5" s="129"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="104">
         <v>35</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="J5" s="34"/>
+      <c r="K5" s="105" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F6" s="40"/>
-      <c r="I6" s="41" t="s">
+    <row r="6" spans="2:12" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F6" s="35"/>
+      <c r="K6" s="36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="80" t="s">
+    <row r="7" spans="2:12" ht="69.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="79" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="79"/>
+      <c r="F7" s="123"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="77" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="J7"/>
-    </row>
-    <row r="8" spans="2:10" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="81"/>
-      <c r="H8" s="78"/>
-      <c r="J8"/>
-    </row>
-    <row r="9" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="16" t="s">
+      <c r="J7" s="69"/>
+      <c r="L7"/>
+    </row>
+    <row r="8" spans="2:12" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="125"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="70"/>
+      <c r="L8"/>
+    </row>
+    <row r="9" spans="2:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="36" t="s">
+      <c r="C9" s="115"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="75" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="24">
-        <f>(C9*(VLOOKUP(E9,Listes!$A$9:$B$12,2,FALSE))*VLOOKUP(F9,Listes!$C$9:$D$13,2,FALSE))/(($H$4)*$C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="J9"/>
-    </row>
-    <row r="10" spans="2:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27"/>
-      <c r="J10"/>
-    </row>
-    <row r="11" spans="2:10" ht="7.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H11" s="2"/>
-      <c r="J11"/>
-    </row>
-    <row r="12" spans="2:10" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="80" t="s">
+      <c r="H9" s="3"/>
+      <c r="I9" s="80" t="str">
+        <f>IF($C$3="","",(C9*(VLOOKUP(E9,Listes!$A$9:$B$12,2,FALSE))*VLOOKUP(F9,Listes!$C$9:$D$13,2,FALSE))/(($I$4)*$C$3))</f>
+        <v/>
+      </c>
+      <c r="J9" s="22"/>
+      <c r="L9"/>
+    </row>
+    <row r="10" spans="2:12" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="23"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="25"/>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="2:12" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C11" s="117"/>
+      <c r="J11" s="2"/>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="2:12" ht="69" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="37" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="32" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
-      <c r="J12"/>
-    </row>
-    <row r="13" spans="2:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="81"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9"/>
-      <c r="G13" s="78" t="s">
+      <c r="G12" s="78"/>
+      <c r="H12" s="5"/>
+      <c r="L12"/>
+    </row>
+    <row r="13" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="125"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="73"/>
+      <c r="G13" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="J13"/>
-    </row>
-    <row r="14" spans="2:10" s="3" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="17" t="s">
+      <c r="H13" s="70"/>
+      <c r="L13"/>
+    </row>
+    <row r="14" spans="2:12" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="36" t="s">
+      <c r="C14" s="115"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="78"/>
-    </row>
-    <row r="15" spans="2:10" s="3" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="17"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="2:10" s="3" customFormat="1" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="17" t="s">
+      <c r="G14" s="122"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="2:12" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="15"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="2:12" s="3" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="36" t="s">
+      <c r="C16" s="115"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="24">
-        <f>(C14*VLOOKUP(E14,Listes!A9:B12,2,FALSE))*C16*VLOOKUP(E16,Listes!C9:D13,2,FALSE)/($H$4*$C$3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" s="3" customFormat="1" ht="8.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="18"/>
+      <c r="G16" s="82" t="str">
+        <f>IF($C$3="","",(C14*VLOOKUP(E14,Listes!A9:B12,2,FALSE))*C16*VLOOKUP(E16,Listes!C9:D13,2,FALSE)/($I$4*$C$3))</f>
+        <v/>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="2:9" s="3" customFormat="1" ht="8.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="16"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="33" t="s">
+      <c r="G17" s="79"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="2:7" ht="9.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="2:9" ht="9.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JMLgxVB73JREIu3KhKbahhzuePsW7k994qKvRNaFBc1SUYfW0e9IJK0+5JFSvfneZrJFtEsoROwJXAnwO1pqhw==" saltValue="qoybIwDUU/wNqW8rSWnCuA==" spinCount="100000" sheet="1" objects="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0icUYHHl/T15GPprlkCtnYWY1V+Mc0CeWRGJrozqGD8tnW8x+eSo4bTXUhIBf/PamWJiGkwLZFVCbyucWBpisg==" saltValue="qCDvL6wBS6ZawJYeQ89+2Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="8">
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="F4:G4"/>
@@ -3087,223 +3530,260 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8A2146-06E3-4AF5-B8DE-4E238C679E51}">
-  <dimension ref="C1:I18"/>
+  <dimension ref="C1:I22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="43.5" style="75" customWidth="1"/>
+    <col min="2" max="2" width="18.59765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="43.53125" style="50" customWidth="1"/>
     <col min="4" max="4" width="9" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="4" style="50" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="3"/>
-    <col min="9" max="9" width="22.33203125" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="11.33203125" style="3"/>
+    <col min="5" max="5" width="19.265625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="6.3984375" style="43" customWidth="1"/>
+    <col min="7" max="7" width="9.3984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.3984375" style="3"/>
+    <col min="9" max="9" width="22.265625" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="11.3984375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="3:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="91" t="s">
+    <row r="2" spans="3:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-    </row>
-    <row r="3" spans="3:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="46" t="s">
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+    </row>
+    <row r="3" spans="3:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="90"/>
-      <c r="G3" s="92" t="s">
+      <c r="E3" s="133"/>
+      <c r="F3" s="135" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-    </row>
-    <row r="4" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="47" t="s">
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+    </row>
+    <row r="4" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C4" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="48" t="str">
+      <c r="D4" s="41" t="str">
         <f>IF(D3="FONCTIONNAIRE","1607 h/an et 35h/semaine","208 jours/an et 8 h/jour")</f>
         <v>208 jours/an et 8 h/jour</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="50"/>
-    </row>
-    <row r="5" spans="3:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="46"/>
-      <c r="D5" s="48"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
+    </row>
+    <row r="5" spans="3:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C5" s="39"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="50"/>
-    </row>
-    <row r="6" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="46" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="43"/>
+    </row>
+    <row r="6" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="51" t="s">
+      <c r="D6" s="113"/>
+      <c r="E6" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-    </row>
-    <row r="7" spans="3:9" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="46"/>
-      <c r="D7" s="53" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+    </row>
+    <row r="7" spans="3:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C7" s="39"/>
+      <c r="D7" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-    </row>
-    <row r="8" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="46" t="s">
+      <c r="E7" s="44"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+    </row>
+    <row r="8" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="51" t="s">
+      <c r="D8" s="113"/>
+      <c r="E8" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-    </row>
-    <row r="9" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="46"/>
-      <c r="D9" s="55" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+    </row>
+    <row r="9" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C9" s="39"/>
+      <c r="D9" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-    </row>
-    <row r="10" spans="3:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="46"/>
-      <c r="D10" s="56"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+    </row>
+    <row r="10" spans="3:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C10" s="39"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="57" t="s">
+    <row r="11" spans="3:9" ht="7.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C11" s="86"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="89"/>
+    </row>
+    <row r="12" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C12" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="58">
-        <f>IF(D3="MAGISTRAT",D6*D8*Listes!D3,D6*D8*Fonctionnaires!H4/7)</f>
+      <c r="D12" s="106">
+        <f>IF(D3="MAGISTRAT",D6*D8*Listes!D3,D6*D8*Fonctionnaires!I4/7)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E12" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="61">
-        <f>IF(D3="FONCTIONNAIRE",D11*7,D11*8)</f>
+      <c r="G12" s="106">
+        <f>IF(D3="FONCTIONNAIRE",D12*7,D12*8)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="59" t="s">
+      <c r="H12" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="62"/>
-    </row>
-    <row r="12" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="63" t="s">
+      <c r="I12" s="90"/>
+    </row>
+    <row r="13" spans="3:9" ht="8.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C13" s="15"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="90"/>
+    </row>
+    <row r="14" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C14" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="64">
-        <f>D11/12</f>
+      <c r="D14" s="106">
+        <f>D12/12</f>
         <v>0</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E14" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F14" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="65">
-        <f>IF(D4="FONCTIONNAIRE",D12*7,D12*8)</f>
+      <c r="G14" s="106">
+        <f>IF(D4="FONCTIONNAIRE",D14*7,D14*8)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H14" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="66"/>
-    </row>
-    <row r="13" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="67" t="s">
+      <c r="I14" s="90"/>
+    </row>
+    <row r="15" spans="3:9" ht="6.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C15" s="15"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="90"/>
+    </row>
+    <row r="16" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C16" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="68">
+      <c r="D16" s="106">
         <f>(D8*D6)*5</f>
         <v>0</v>
       </c>
-      <c r="E13" s="69" t="s">
+      <c r="E16" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F16" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="71">
-        <f>IF(D3="FONCTIONNAIRE",D13*7,D13*8)</f>
+      <c r="G16" s="106">
+        <f>IF(D3="FONCTIONNAIRE",D16*7,D16*8)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="69" t="s">
+      <c r="H16" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="72"/>
-    </row>
-    <row r="14" spans="3:9" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="76" t="s">
+      <c r="I16" s="90"/>
+    </row>
+    <row r="17" spans="3:9" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C17" s="91"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="3:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C18" s="51" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="3:9" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="76" t="s">
+    <row r="19" spans="3:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="51" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="73"/>
-    </row>
-    <row r="17" spans="3:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="74"/>
-    </row>
-    <row r="18" spans="3:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="73"/>
+    <row r="20" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C20" s="48"/>
+    </row>
+    <row r="21" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C21" s="49"/>
+    </row>
+    <row r="22" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C22" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Gy5QNriGlaVHeAjPum4cM0C4+yAHxmDli0jwulpHKqegGEbXID+fQiRrC1N4zJrSKGFxFCw3CH18lQT24sk6Nw==" saltValue="wVeS2Y8bMsGjmNDXNpg93A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="081fSalbcGlzA/X++VRaiLQvrbKYn537rtRsAT/5KPqtvAPf849g4czyfBO1oFqX/TeHrdkdChi9v7Up3CxAng==" saltValue="lowU4dOfVq9S06BSRuVtRA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="3">
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="C2:I2"/>
-    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="F3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3324,30 +3804,329 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480D2DAB-0DEC-4435-9DCE-D139DCBCA90F}">
+  <dimension ref="C1:L19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.3984375" style="3"/>
+    <col min="2" max="2" width="0.796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="2.06640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="54.73046875" style="50" customWidth="1"/>
+    <col min="6" max="6" width="9.796875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="0.59765625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.19921875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="13.86328125" style="43" customWidth="1"/>
+    <col min="10" max="10" width="15.19921875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="38.265625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="2" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="11.3984375" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="3:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E2" s="136" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+    </row>
+    <row r="3" spans="3:12" ht="53.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E3" s="137" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+    </row>
+    <row r="4" spans="3:12" ht="20.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E4" s="61"/>
+      <c r="F4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="61"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+    </row>
+    <row r="5" spans="3:12" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E5" s="61"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+    </row>
+    <row r="6" spans="3:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E6" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="107"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="53"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="45"/>
+    </row>
+    <row r="7" spans="3:12" ht="5.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E7" s="39"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="45"/>
+    </row>
+    <row r="8" spans="3:12" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="107"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="10" t="str">
+        <f>IF(F8&lt;2,"audience","audiences")</f>
+        <v>audience</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="135" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="135"/>
+    </row>
+    <row r="9" spans="3:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="62"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="45"/>
+    </row>
+    <row r="10" spans="3:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E10" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="107"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="138" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="138"/>
+      <c r="K10" s="138"/>
+    </row>
+    <row r="11" spans="3:12" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E11" s="50"/>
+      <c r="F11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="103"/>
+    </row>
+    <row r="12" spans="3:12" ht="39.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="3:12" ht="5.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D13" s="94"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="100"/>
+    </row>
+    <row r="14" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C14" s="64"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="110" t="str">
+        <f>IF(F10="","",ABS(F10-F6))</f>
+        <v/>
+      </c>
+      <c r="G14" s="58"/>
+      <c r="H14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="101" t="str">
+        <f>IF(F14="","",IF((F10-F6)&gt;=2,"supplémentaires",IF((F10-F6)&gt;0,"supplémentaire","en moins")))</f>
+        <v/>
+      </c>
+      <c r="J14" s="102" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="90"/>
+      <c r="L14" s="100"/>
+    </row>
+    <row r="15" spans="3:12" ht="6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C15" s="64"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="58"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="100"/>
+    </row>
+    <row r="16" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C16" s="64"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="110" t="str">
+        <f>IF(F14="","",ABS(F8*F14/F6))</f>
+        <v/>
+      </c>
+      <c r="G16" s="59"/>
+      <c r="H16" s="10" t="str">
+        <f>IF(F16&lt;2,"audience","audiences")</f>
+        <v>audiences</v>
+      </c>
+      <c r="I16" s="101" t="str">
+        <f>IF(F16="","",IF((F10-F6)&lt;0,"en moins",IF(F16&gt;=2,"supplémentaires","supplémentaire")))</f>
+        <v/>
+      </c>
+      <c r="J16" s="102" t="str">
+        <f>IF(I16="","",I8)</f>
+        <v/>
+      </c>
+      <c r="K16" s="90" t="str">
+        <f>IF(J16="","","(toutes choses restant égales par ailleurs)")</f>
+        <v/>
+      </c>
+      <c r="L16" s="100"/>
+    </row>
+    <row r="17" spans="3:12" ht="5.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C17" s="64"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="59"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="100"/>
+    </row>
+    <row r="18" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C18" s="64"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="110" t="str">
+        <f>IF(OR(F10=0,F6=0),"",F8/F6*F10)</f>
+        <v/>
+      </c>
+      <c r="G18" s="60"/>
+      <c r="H18" s="10" t="str">
+        <f>IF(F18&lt;2,"audience","audiences")</f>
+        <v>audiences</v>
+      </c>
+      <c r="I18" s="101" t="str">
+        <f>J16</f>
+        <v/>
+      </c>
+      <c r="J18" s="102"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="100"/>
+    </row>
+    <row r="19" spans="3:12" ht="6.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C19" s="66"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="100"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="MriNyt6uGjBwn6KwokVs/sb7/c6nlPAyy9JlF9DCT8QGEWVOLVlkqeizkTOPc9h1qGLK0bDzYv5EVXXbsaYbRg==" saltValue="J78SKFVuT2YqIiRKOu0bpQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <mergeCells count="4">
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="I10:K10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{23FE358A-EED1-43FA-B7B5-44EB7C7B3251}">
+          <x14:formula1>
+            <xm:f>Listes!$C$2:$C$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>I8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCB943E-2788-419C-9C92-95BD0D524763}">
   <sheetPr codeName="Feuil3"/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3358,11 +4137,18 @@
         <v>27</v>
       </c>
       <c r="D3">
-        <f>Magistrats!H4</f>
+        <f>Magistrats!I4</f>
         <v>208</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="56">
+        <f>D3</f>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3376,13 +4162,20 @@
         <f>D3/5</f>
         <v>41.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="55">
+        <f>F3*2</f>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
-        <f>1/Magistrats!H5</f>
+        <f>1/Magistrats!I5</f>
         <v>0.125</v>
       </c>
       <c r="C5" t="s">
@@ -3391,8 +4184,15 @@
       <c r="D5">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="55">
+        <f>D3*8</f>
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>5</v>
       </c>
@@ -3400,89 +4200,118 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="33"/>
       <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="38"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="33"/>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="38">
-        <f>Fonctionnaires!H5/5</f>
+      <c r="B10" s="33">
+        <f>Fonctionnaires!I5/5</f>
         <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="38">
-        <f>Fonctionnaires!H4/Listes!B10</f>
+      <c r="D10" s="33">
+        <f>Fonctionnaires!I4/Listes!B10</f>
         <v>229.57142857142858</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="56">
+        <f>D10</f>
+        <v>229.57142857142858</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="33">
         <f>B10/2</f>
         <v>3.5</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="38">
-        <f>Fonctionnaires!H4/Fonctionnaires!H5</f>
+      <c r="D11" s="33">
+        <f>Fonctionnaires!I4/Fonctionnaires!I5</f>
         <v>45.914285714285711</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="55">
+        <f>F10*2</f>
+        <v>459.14285714285717</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="38">
+      <c r="B12" s="33">
         <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="33">
         <f>12</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="38"/>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="55">
+        <f>D10*7</f>
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B13" s="33"/>
       <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="44" t="s">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A15" s="38" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="44" t="s">
+      <c r="C15" s="38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A16" s="38" t="s">
         <v>51</v>
       </c>
+      <c r="C16" s="38" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="e1jtadQkx9qfkHcRZsTZ1UaMTku6yqeLXWIU9HKCaUf/AXherKTmdM4TzDBiKbY57yyzh5107OL8N/7LrldLtQ==" saltValue="SBV2M9wOVAgZQDXq/zdeTQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/front/src/assets/Calculatrice_de_ventilation_du_temps_par_activité_A-JUST_MAG_et_GRF.xlsx
+++ b/front/src/assets/Calculatrice_de_ventilation_du_temps_par_activité_A-JUST_MAG_et_GRF.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulm\Documents\Pro\PPME\beta.gouv.fr\A-JUST\Construction\Produit\Calculatrice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1064FD06-7239-40BA-B921-E1A4B3A10E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C69CC18-6A26-4968-9A9B-1F94D79130E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="ObRgUzRlu8iQSYGVA2lhVH078zP8iP0F6GyFZ5bGpriWZ1Hwj3maJsSgI3ZOQE3LrjmCbxrcQ87zOl98xoDpSQ==" workbookSaltValue="QKZk8Zmv165nJIoj5ruu2A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{F5E75FD0-8D4A-4F41-B6C7-77BCC38AF8C3}"/>
   </bookViews>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="81">
   <si>
     <t>Temps de travail d'un magistrat</t>
   </si>
@@ -496,6 +497,9 @@
   </si>
   <si>
     <t xml:space="preserve"> au total</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -716,7 +720,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -801,10 +805,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -939,12 +939,6 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1037,14 +1031,6 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1061,6 +1047,13 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1115,6 +1108,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1198,13 +1216,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>710559</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>798191</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>220926</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9489</xdr:rowOff>
@@ -1251,13 +1269,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>366706</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>131441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>792414</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>7588</xdr:rowOff>
@@ -1357,13 +1375,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>238124</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>657140</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>419100</xdr:rowOff>
@@ -1410,13 +1428,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>220027</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>639080</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>342847</xdr:rowOff>
@@ -1469,7 +1487,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>20955</xdr:rowOff>
@@ -1547,13 +1565,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>236221</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1377301</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>670541</xdr:rowOff>
@@ -1640,7 +1658,7 @@
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>17144</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>671511</xdr:rowOff>
@@ -1763,7 +1781,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="9525"/>
-          <a:ext cx="1847850" cy="1847850"/>
+          <a:ext cx="1852605" cy="1851857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1832,13 +1850,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>710559</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>798191</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>212317</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>8522</xdr:rowOff>
@@ -1885,13 +1903,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>405761</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>107630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>830483</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>115224</xdr:rowOff>
@@ -1991,13 +2009,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>238124</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>656174</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>419100</xdr:rowOff>
@@ -2044,16 +2062,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>220027</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>640019</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>364752</xdr:rowOff>
+      <xdr:rowOff>279528</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2103,7 +2121,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>20955</xdr:rowOff>
@@ -2181,13 +2199,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>779124</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>219053</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1363958</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>694352</xdr:rowOff>
@@ -2274,7 +2292,7 @@
       <xdr:rowOff>211461</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>615315</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>694378</xdr:rowOff>
@@ -2976,7 +2994,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F397B1C1-42FB-48AE-9FA7-0EC11F273BC4}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="B1:L19"/>
+  <dimension ref="B1:M19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -2987,130 +3005,138 @@
     <col min="1" max="1" width="33.265625" customWidth="1"/>
     <col min="2" max="2" width="53.3984375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="1.3984375" customWidth="1"/>
-    <col min="5" max="5" width="12.73046875" customWidth="1"/>
-    <col min="6" max="6" width="13.1328125" customWidth="1"/>
-    <col min="7" max="7" width="13.73046875" customWidth="1"/>
-    <col min="8" max="8" width="1.265625" customWidth="1"/>
-    <col min="9" max="9" width="13.59765625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="1" customWidth="1"/>
-    <col min="11" max="11" width="12.265625" customWidth="1"/>
-    <col min="12" max="12" width="19.3984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="3.33203125" customWidth="1"/>
+    <col min="5" max="5" width="1.3984375" customWidth="1"/>
+    <col min="6" max="6" width="12.73046875" customWidth="1"/>
+    <col min="7" max="7" width="13.1328125" customWidth="1"/>
+    <col min="8" max="8" width="13.73046875" customWidth="1"/>
+    <col min="9" max="9" width="1.265625" customWidth="1"/>
+    <col min="10" max="10" width="13.59765625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="1" customWidth="1"/>
+    <col min="12" max="12" width="12.265625" customWidth="1"/>
+    <col min="13" max="13" width="19.3984375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="67.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:13" ht="67.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="19"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="11"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="11"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="5"/>
-      <c r="L2"/>
-    </row>
-    <row r="3" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I2" s="4"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="5"/>
+      <c r="M2"/>
+    </row>
+    <row r="3" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="26"/>
-      <c r="F3" s="18" t="s">
+      <c r="C3" s="116"/>
+      <c r="D3" s="117" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="G3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="20"/>
       <c r="H3" s="20"/>
-      <c r="K3" s="21"/>
-      <c r="L3"/>
-    </row>
-    <row r="4" spans="2:12" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I3" s="20"/>
+      <c r="L3" s="21"/>
+      <c r="M3"/>
+    </row>
+    <row r="4" spans="2:13" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="29"/>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="F4" s="126" t="s">
+      <c r="E4" s="27"/>
+      <c r="G4" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="127"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="2">
+      <c r="H4" s="124"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="2">
         <v>208</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="1"/>
+      <c r="L4" s="21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:12" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F5" s="128" t="s">
+    <row r="5" spans="2:13" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G5" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="129"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="6">
+      <c r="H5" s="126"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="6">
         <v>8</v>
       </c>
-      <c r="J5" s="37"/>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="36"/>
+      <c r="L5" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="20.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-    </row>
-    <row r="7" spans="2:12" ht="69.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="124" t="s">
+    <row r="6" spans="2:13" ht="20.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" spans="2:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="121" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="17"/>
-      <c r="E7" s="123" t="s">
+      <c r="E7" s="17"/>
+      <c r="F7" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="123"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="120"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="121" t="s">
+      <c r="I7" s="4"/>
+      <c r="J7" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="69"/>
-      <c r="L7"/>
-    </row>
-    <row r="8" spans="2:12" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="125"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="70"/>
-      <c r="L8"/>
-    </row>
-    <row r="9" spans="2:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K7" s="68"/>
+      <c r="M7"/>
+    </row>
+    <row r="8" spans="2:13" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="122"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="69"/>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="2:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="115"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="75" t="s">
+      <c r="C9" s="110"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="75" t="s">
+      <c r="G9" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="80" t="str">
-        <f>IF($C$3="","",(C9*(VLOOKUP(E9,Listes!$A$2:$B$5,2,FALSE))*VLOOKUP(F9,Listes!$C$2:$D$6,2,FALSE))/($I$4*$C$3))</f>
+      <c r="I9" s="3"/>
+      <c r="J9" s="79" t="str">
+        <f>IF($C$3="","",(C9*(VLOOKUP(F9,Listes!$A$2:$B$5,2,FALSE))*VLOOKUP(G9,Listes!$C$2:$D$6,2,FALSE))/($J$4*$C$3/100))</f>
         <v/>
       </c>
-      <c r="J9" s="76"/>
-      <c r="L9"/>
-    </row>
-    <row r="10" spans="2:12" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K9" s="75"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="2:13" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="23"/>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
@@ -3118,111 +3144,120 @@
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="25"/>
-      <c r="L10"/>
-    </row>
-    <row r="11" spans="2:12" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J11" s="2"/>
-      <c r="L11"/>
-    </row>
-    <row r="12" spans="2:12" ht="69" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="124" t="s">
+      <c r="I10" s="24"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="25"/>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="2:13" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K11" s="2"/>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="2:13" ht="69" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="121" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="32" t="s">
+      <c r="D12" s="32"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="5"/>
-      <c r="L12"/>
-    </row>
-    <row r="13" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="125"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="73"/>
-      <c r="G13" s="122" t="s">
+      <c r="G12" s="4"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="5"/>
+      <c r="M12"/>
+    </row>
+    <row r="13" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="122"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="72"/>
+      <c r="H13" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="70"/>
-      <c r="L13"/>
-    </row>
-    <row r="14" spans="2:12" s="3" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I13" s="69"/>
+      <c r="M13"/>
+    </row>
+    <row r="14" spans="2:13" s="3" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="75" t="s">
+      <c r="C14" s="110"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="122"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="2:12" s="3" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H14" s="119"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="2:13" s="3" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="15"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="10"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
       <c r="E15" s="10"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="2:12" s="3" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F15" s="10"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="2:13" s="3" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="115"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="75" t="s">
+      <c r="C16" s="110"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="80" t="str">
-        <f>IF($C$3="","",(C14*VLOOKUP(E14,Listes!A2:B5,2,FALSE))*C16*VLOOKUP(E16,Listes!C2:D6,2,FALSE)/($I$4*$C$3))</f>
+      <c r="H16" s="79" t="str">
+        <f>IF($C$3="","",(C14*VLOOKUP(F14,Listes!A2:B5,2,FALSE))*C16*VLOOKUP(F16,Listes!C2:D6,2,FALSE)/($J$4*$C$3/100))</f>
         <v/>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="2:9" s="3" customFormat="1" ht="8.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I16" s="22"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="2:10" s="3" customFormat="1" ht="8.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="16"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="31" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-    </row>
-    <row r="19" spans="2:9" ht="9.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="2:10" ht="9.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JzKkPoWrFIuwfJWpFP3NYujaKU7BurhH/QVqkU0P6YL1yI25qRo18JzA1+CfzfRZncExbTYNxJYcWXMq1AujTw==" saltValue="ohH2lfEZAiPd/1xmSNkFMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nCAsHAqJTpAeMBW86rr2vuxTmOi0bKuv6zNI9Edrz9qThuWBs9wcQ9wYXM7yZsOplV8DSUJthxKBXzQy2FQCYA==" saltValue="sfGTb/wwfPB6gXutKeE+SQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="7">
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="F7:G7"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="H13:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3234,13 +3269,13 @@
           <x14:formula1>
             <xm:f>Listes!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>E14:E15 E9</xm:sqref>
+          <xm:sqref>F14:F15 F9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{15544EA6-92DC-4247-B936-C858DBA7B129}">
           <x14:formula1>
             <xm:f>Listes!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F9 E16:E17</xm:sqref>
+          <xm:sqref>G9 F16:F17</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3251,7 +3286,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AC8D38-7FA4-425B-A79C-21748CE3E727}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="B1:L19"/>
+  <dimension ref="B1:M19"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -3262,247 +3297,265 @@
     <col min="1" max="1" width="33.265625" customWidth="1"/>
     <col min="2" max="2" width="53.3984375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="1.3984375" customWidth="1"/>
-    <col min="5" max="5" width="12.73046875" customWidth="1"/>
-    <col min="6" max="6" width="13.1328125" customWidth="1"/>
-    <col min="7" max="7" width="17.46484375" customWidth="1"/>
-    <col min="8" max="8" width="1.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.59765625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="1.33203125" customWidth="1"/>
-    <col min="11" max="11" width="21.33203125" customWidth="1"/>
-    <col min="12" max="12" width="19.3984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="3.19921875" customWidth="1"/>
+    <col min="5" max="5" width="1.3984375" customWidth="1"/>
+    <col min="6" max="6" width="12.73046875" customWidth="1"/>
+    <col min="7" max="7" width="13.1328125" customWidth="1"/>
+    <col min="8" max="8" width="17.46484375" customWidth="1"/>
+    <col min="9" max="9" width="1.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.59765625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="1.33203125" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19.3984375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="69.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:13" ht="69.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="19"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="11"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="11"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="5"/>
-      <c r="L2"/>
-    </row>
-    <row r="3" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I2" s="4"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="5"/>
+      <c r="M2"/>
+    </row>
+    <row r="3" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="26"/>
-      <c r="F3" s="130" t="s">
+      <c r="C3" s="116"/>
+      <c r="D3" s="117" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="G3" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="132"/>
-      <c r="L3"/>
-    </row>
-    <row r="4" spans="2:12" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="129"/>
+      <c r="M3"/>
+    </row>
+    <row r="4" spans="2:13" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="29"/>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="F4" s="126" t="s">
+      <c r="E4" s="27"/>
+      <c r="G4" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="127"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="10">
+      <c r="H4" s="124"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="10">
         <v>1607</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="90" t="s">
+      <c r="K4" s="1"/>
+      <c r="L4" s="87" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:12" s="3" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F5" s="128" t="s">
+    <row r="5" spans="2:13" s="3" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G5" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="129"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="104">
+      <c r="H5" s="126"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="101">
         <v>35</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="105" t="s">
+      <c r="K5" s="143"/>
+      <c r="L5" s="102" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F6" s="35"/>
-      <c r="K6" s="36" t="s">
+    <row r="6" spans="2:13" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G6" s="34"/>
+      <c r="L6" s="35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="69.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="124" t="s">
+    <row r="7" spans="2:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="121" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="17"/>
-      <c r="E7" s="123" t="s">
+      <c r="E7" s="17"/>
+      <c r="F7" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="123"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="120"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="121" t="s">
+      <c r="I7" s="4"/>
+      <c r="J7" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="69"/>
-      <c r="L7"/>
-    </row>
-    <row r="8" spans="2:12" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="125"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="70"/>
-      <c r="L8"/>
-    </row>
-    <row r="9" spans="2:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K7" s="68"/>
+      <c r="M7"/>
+    </row>
+    <row r="8" spans="2:13" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="122"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="69"/>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="2:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="115"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="75" t="s">
+      <c r="C9" s="110"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="75" t="s">
+      <c r="G9" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="80" t="str">
-        <f>IF($C$3="","",(C9*(VLOOKUP(E9,Listes!$A$9:$B$12,2,FALSE))*VLOOKUP(F9,Listes!$C$9:$D$13,2,FALSE))/(($I$4)*$C$3))</f>
+      <c r="I9" s="3"/>
+      <c r="J9" s="79" t="str">
+        <f>IF($C$3="","",(C9*(VLOOKUP(F9,Listes!$A$9:$B$12,2,FALSE))*VLOOKUP(G9,Listes!$C$9:$D$13,2,FALSE))/(($J$4)*$C$3/100))</f>
         <v/>
       </c>
-      <c r="J9" s="22"/>
-      <c r="L9"/>
-    </row>
-    <row r="10" spans="2:12" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K9" s="22"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="2:13" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="23"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="24"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="25"/>
-      <c r="L10"/>
-    </row>
-    <row r="11" spans="2:12" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C11" s="117"/>
-      <c r="J11" s="2"/>
-      <c r="L11"/>
-    </row>
-    <row r="12" spans="2:12" ht="69" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="124" t="s">
+      <c r="I10" s="24"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="25"/>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="2:13" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="K11" s="2"/>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="2:13" ht="69" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="118" t="s">
+      <c r="C12" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="32" t="s">
+      <c r="D12" s="113"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="5"/>
-      <c r="L12"/>
-    </row>
-    <row r="13" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="125"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="73"/>
-      <c r="G13" s="122" t="s">
+      <c r="G12" s="4"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="5"/>
+      <c r="M12"/>
+    </row>
+    <row r="13" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="122"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="72"/>
+      <c r="H13" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="70"/>
-      <c r="L13"/>
-    </row>
-    <row r="14" spans="2:12" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I13" s="69"/>
+      <c r="M13"/>
+    </row>
+    <row r="14" spans="2:13" s="3" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="75" t="s">
+      <c r="C14" s="110"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="122"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="2:12" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H14" s="119"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="2:13" s="3" customFormat="1" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="15"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="10"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
       <c r="E15" s="10"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="2:12" s="3" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F15" s="10"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="2:13" s="3" customFormat="1" ht="40.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="115"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="75" t="s">
+      <c r="C16" s="110"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="82" t="str">
-        <f>IF($C$3="","",(C14*VLOOKUP(E14,Listes!A9:B12,2,FALSE))*C16*VLOOKUP(E16,Listes!C9:D13,2,FALSE)/($I$4*$C$3))</f>
+      <c r="H16" s="79" t="str">
+        <f>IF($C$3="","",(C14*VLOOKUP(F14,Listes!A9:B12,2,FALSE))*C16*VLOOKUP(F16,Listes!C9:D13,2,FALSE)/($J$4*$C$3/100))</f>
         <v/>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="2:9" s="3" customFormat="1" ht="8.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I16" s="22"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="2:10" s="3" customFormat="1" ht="8.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="16"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-    </row>
-    <row r="19" spans="2:9" ht="9.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="2:10" ht="9.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0icUYHHl/T15GPprlkCtnYWY1V+Mc0CeWRGJrozqGD8tnW8x+eSo4bTXUhIBf/PamWJiGkwLZFVCbyucWBpisg==" saltValue="qCDvL6wBS6ZawJYeQ89+2Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zT11AMzOrz6RZt2EcevcqkzPujhmv44csbZKo8U8VANRZP6a1cV4IchlN+CO/A8iMZdoAZ+o3duoZPYedxVEAw==" saltValue="t4Q8GqrnFUa1+OPiSbuumQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="8">
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3514,13 +3567,13 @@
           <x14:formula1>
             <xm:f>Listes!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>E14:E15 E9</xm:sqref>
+          <xm:sqref>F14:F15 F9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C56303ED-7DD0-42D1-B841-363D196135D2}">
           <x14:formula1>
             <xm:f>Listes!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E16:E17 F9</xm:sqref>
+          <xm:sqref>F16:F17 G9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3530,260 +3583,281 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8A2146-06E3-4AF5-B8DE-4E238C679E51}">
-  <dimension ref="C1:I22"/>
+  <dimension ref="C1:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E3"/>
+      <selection activeCell="D3" sqref="D3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.59765625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="43.53125" style="50" customWidth="1"/>
+    <col min="3" max="3" width="43.53125" style="49" customWidth="1"/>
     <col min="4" max="4" width="9" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.265625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="6.3984375" style="43" customWidth="1"/>
-    <col min="7" max="7" width="9.3984375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.3984375" style="3"/>
-    <col min="9" max="9" width="22.265625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="11.3984375" style="3"/>
+    <col min="5" max="5" width="2.3984375" style="41" customWidth="1"/>
+    <col min="6" max="6" width="19.265625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="6.3984375" style="42" customWidth="1"/>
+    <col min="8" max="8" width="9.3984375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.3984375" style="3"/>
+    <col min="10" max="10" width="22.265625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="11.3984375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C1" s="3"/>
-      <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="3:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="134" t="s">
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="3:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-    </row>
-    <row r="3" spans="3:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="39" t="s">
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+    </row>
+    <row r="3" spans="3:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="133" t="s">
+      <c r="D3" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="133"/>
-      <c r="F3" s="135" t="s">
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="132" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-    </row>
-    <row r="4" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="40" t="s">
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+    </row>
+    <row r="4" spans="3:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C4" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="41" t="str">
+      <c r="D4" s="40" t="str">
         <f>IF(D3="FONCTIONNAIRE","1607 h/an et 35h/semaine","208 jours/an et 8 h/jour")</f>
         <v>208 jours/an et 8 h/jour</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43"/>
-    </row>
-    <row r="5" spans="3:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C5" s="39"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="43"/>
-    </row>
-    <row r="6" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C6" s="39" t="s">
+      <c r="E4" s="137"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="42"/>
+    </row>
+    <row r="5" spans="3:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C5" s="38"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="42"/>
+    </row>
+    <row r="6" spans="3:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="113"/>
-      <c r="E6" s="44" t="s">
+      <c r="D6" s="136"/>
+      <c r="E6" s="138" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-    </row>
-    <row r="7" spans="3:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C7" s="39"/>
-      <c r="D7" s="83" t="s">
+      <c r="G6" s="10"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+    </row>
+    <row r="7" spans="3:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C7" s="38"/>
+      <c r="D7" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="46"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-    </row>
-    <row r="8" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="39" t="s">
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+    </row>
+    <row r="8" spans="3:10" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="113"/>
-      <c r="E8" s="44" t="s">
+      <c r="D8" s="136"/>
+      <c r="E8" s="138" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-    </row>
-    <row r="9" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="39"/>
-      <c r="D9" s="84" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+    </row>
+    <row r="9" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C9" s="38"/>
+      <c r="D9" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-    </row>
-    <row r="10" spans="3:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C10" s="39"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="3"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+    </row>
+    <row r="10" spans="3:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C10" s="38"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="137"/>
       <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="3:9" ht="7.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C11" s="86"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="89"/>
-    </row>
-    <row r="12" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="3:10" ht="7.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C11" s="83"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="86"/>
+    </row>
+    <row r="12" spans="3:10" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C12" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="106">
-        <f>IF(D3="MAGISTRAT",D6*D8*Listes!D3,D6*D8*Fonctionnaires!I4/7)</f>
+      <c r="D12" s="103">
+        <f>IF(D3="MAGISTRAT",D6*D8*Listes!D3/10000,D6*D8*Fonctionnaires!J4/70000)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="140"/>
+      <c r="F12" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="G12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="106">
+      <c r="H12" s="103">
         <f>IF(D3="FONCTIONNAIRE",D12*7,D12*8)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="44" t="s">
+      <c r="I12" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="90"/>
-    </row>
-    <row r="13" spans="3:9" ht="8.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J12" s="87"/>
+    </row>
+    <row r="13" spans="3:10" ht="8.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C13" s="15"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="90"/>
-    </row>
-    <row r="14" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D13" s="82"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="87"/>
+    </row>
+    <row r="14" spans="3:10" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C14" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="106">
+      <c r="D14" s="103">
         <f>D12/12</f>
         <v>0</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="140"/>
+      <c r="F14" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="G14" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="106">
+      <c r="H14" s="103">
         <f>IF(D4="FONCTIONNAIRE",D14*7,D14*8)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="44" t="s">
+      <c r="I14" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="90"/>
-    </row>
-    <row r="15" spans="3:9" ht="6.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J14" s="87"/>
+    </row>
+    <row r="15" spans="3:10" ht="6.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C15" s="15"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="90"/>
-    </row>
-    <row r="16" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D15" s="82"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="87"/>
+    </row>
+    <row r="16" spans="3:10" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C16" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="106">
-        <f>(D8*D6)*5</f>
+      <c r="D16" s="103">
+        <f>(D8*D6)*5/10000</f>
         <v>0</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="140"/>
+      <c r="F16" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="G16" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="106">
+      <c r="H16" s="103">
         <f>IF(D3="FONCTIONNAIRE",D16*7,D16*8)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="44" t="s">
+      <c r="I16" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="90"/>
-    </row>
-    <row r="17" spans="3:9" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C17" s="91"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="3:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="51" t="s">
+      <c r="J16" s="87"/>
+    </row>
+    <row r="17" spans="3:10" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C17" s="88"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="3:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C18" s="50" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="3:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="51" t="s">
+    <row r="19" spans="3:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="50" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="48"/>
-    </row>
-    <row r="21" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="49"/>
-    </row>
-    <row r="22" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="48"/>
+    <row r="20" spans="3:10" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C20" s="47"/>
+    </row>
+    <row r="21" spans="3:10" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C21" s="48"/>
+    </row>
+    <row r="22" spans="3:10" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C22" s="47"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="081fSalbcGlzA/X++VRaiLQvrbKYn537rtRsAT/5KPqtvAPf849g4czyfBO1oFqX/TeHrdkdChi9v7Up3CxAng==" saltValue="lowU4dOfVq9S06BSRuVtRA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ihvGjFifcrx3XOsHXboinl7AV6X69ANXLI1Dp7XEz2BvdOq4a8A4+H+87QxON2PsWQUjk3aIDBQQlFz/+67ifQ==" saltValue="n6oOmnfw2U9Y4maai3Dsjg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="3">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="G3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3795,7 +3869,7 @@
           <x14:formula1>
             <xm:f>Listes!$A$15:$A$16</xm:f>
           </x14:formula1>
-          <xm:sqref>D3</xm:sqref>
+          <xm:sqref>D3:E3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3817,11 +3891,11 @@
     <col min="2" max="2" width="0.796875" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.3984375" style="3" customWidth="1"/>
     <col min="4" max="4" width="2.06640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="54.73046875" style="50" customWidth="1"/>
+    <col min="5" max="5" width="54.73046875" style="49" customWidth="1"/>
     <col min="6" max="6" width="9.796875" style="3" customWidth="1"/>
     <col min="7" max="7" width="0.59765625" style="3" customWidth="1"/>
     <col min="8" max="8" width="11.19921875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="13.86328125" style="43" customWidth="1"/>
+    <col min="9" max="9" width="13.86328125" style="42" customWidth="1"/>
     <col min="10" max="10" width="15.19921875" style="3" customWidth="1"/>
     <col min="11" max="11" width="38.265625" style="3" customWidth="1"/>
     <col min="12" max="12" width="2" style="3" customWidth="1"/>
@@ -3834,244 +3908,244 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="3:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E2" s="136" t="s">
+      <c r="E2" s="133" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
     </row>
     <row r="3" spans="3:12" ht="53.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E3" s="137" t="s">
+      <c r="E3" s="134" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
     </row>
     <row r="4" spans="3:12" ht="20.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E4" s="61"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
     </row>
     <row r="5" spans="3:12" ht="21.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E5" s="61"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
     </row>
     <row r="6" spans="3:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="107"/>
-      <c r="G6" s="57"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="56"/>
       <c r="H6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="45"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="44"/>
     </row>
     <row r="7" spans="3:12" ht="5.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E7" s="39"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="45"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="44"/>
     </row>
     <row r="8" spans="3:12" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="65" t="s">
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="107"/>
-      <c r="G8" s="57"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="56"/>
       <c r="H8" s="10" t="str">
         <f>IF(F8&lt;2,"audience","audiences")</f>
         <v>audience</v>
       </c>
-      <c r="I8" s="54" t="s">
+      <c r="I8" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="135" t="s">
+      <c r="J8" s="132" t="s">
         <v>67</v>
       </c>
-      <c r="K8" s="135"/>
+      <c r="K8" s="132"/>
     </row>
     <row r="9" spans="3:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="62"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="61"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="45"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="44"/>
     </row>
     <row r="10" spans="3:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="107"/>
-      <c r="G10" s="57"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="56"/>
       <c r="H10" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="138" t="s">
+      <c r="I10" s="135" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="138"/>
-      <c r="K10" s="138"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="135"/>
     </row>
     <row r="11" spans="3:12" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E11" s="50"/>
+      <c r="E11" s="49"/>
       <c r="F11" s="2" t="s">
         <v>71</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="103"/>
+      <c r="I11" s="100"/>
     </row>
     <row r="12" spans="3:12" ht="39.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="3:12" ht="5.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D13" s="94"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="100"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="97"/>
     </row>
     <row r="14" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C14" s="64"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="39" t="s">
+      <c r="C14" s="63"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="110" t="str">
+      <c r="F14" s="107" t="str">
         <f>IF(F10="","",ABS(F10-F6))</f>
         <v/>
       </c>
-      <c r="G14" s="58"/>
+      <c r="G14" s="57"/>
       <c r="H14" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="101" t="str">
+      <c r="I14" s="98" t="str">
         <f>IF(F14="","",IF((F10-F6)&gt;=2,"supplémentaires",IF((F10-F6)&gt;0,"supplémentaire","en moins")))</f>
         <v/>
       </c>
-      <c r="J14" s="102" t="s">
+      <c r="J14" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="K14" s="90"/>
-      <c r="L14" s="100"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="97"/>
     </row>
     <row r="15" spans="3:12" ht="6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="64"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="58"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="100"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="57"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="97"/>
     </row>
     <row r="16" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="64"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="39" t="s">
+      <c r="C16" s="63"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="110" t="str">
+      <c r="F16" s="107" t="str">
         <f>IF(F14="","",ABS(F8*F14/F6))</f>
         <v/>
       </c>
-      <c r="G16" s="59"/>
+      <c r="G16" s="58"/>
       <c r="H16" s="10" t="str">
         <f>IF(F16&lt;2,"audience","audiences")</f>
         <v>audiences</v>
       </c>
-      <c r="I16" s="101" t="str">
+      <c r="I16" s="98" t="str">
         <f>IF(F16="","",IF((F10-F6)&lt;0,"en moins",IF(F16&gt;=2,"supplémentaires","supplémentaire")))</f>
         <v/>
       </c>
-      <c r="J16" s="102" t="str">
+      <c r="J16" s="99" t="str">
         <f>IF(I16="","",I8)</f>
         <v/>
       </c>
-      <c r="K16" s="90" t="str">
+      <c r="K16" s="87" t="str">
         <f>IF(J16="","","(toutes choses restant égales par ailleurs)")</f>
         <v/>
       </c>
-      <c r="L16" s="100"/>
+      <c r="L16" s="97"/>
     </row>
     <row r="17" spans="3:12" ht="5.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="64"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="59"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="100"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="58"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="97"/>
     </row>
     <row r="18" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="64"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="39" t="s">
+      <c r="C18" s="63"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="110" t="str">
+      <c r="F18" s="107" t="str">
         <f>IF(OR(F10=0,F6=0),"",F8/F6*F10)</f>
         <v/>
       </c>
-      <c r="G18" s="60"/>
+      <c r="G18" s="59"/>
       <c r="H18" s="10" t="str">
         <f>IF(F18&lt;2,"audience","audiences")</f>
         <v>audiences</v>
       </c>
-      <c r="I18" s="101" t="str">
+      <c r="I18" s="98" t="str">
         <f>J16</f>
         <v/>
       </c>
-      <c r="J18" s="102"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="100"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="97"/>
     </row>
     <row r="19" spans="3:12" ht="6.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C19" s="66"/>
-      <c r="D19" s="98"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="95"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="99"/>
+      <c r="J19" s="96"/>
       <c r="K19" s="12"/>
-      <c r="L19" s="100"/>
+      <c r="L19" s="97"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="MriNyt6uGjBwn6KwokVs/sb7/c6nlPAyy9JlF9DCT8QGEWVOLVlkqeizkTOPc9h1qGLK0bDzYv5EVXXbsaYbRg==" saltValue="J78SKFVuT2YqIiRKOu0bpQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
@@ -4137,13 +4211,13 @@
         <v>27</v>
       </c>
       <c r="D3">
-        <f>Magistrats!I4</f>
+        <f>Magistrats!J4</f>
         <v>208</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="55">
         <f>D3</f>
         <v>208</v>
       </c>
@@ -4165,7 +4239,7 @@
       <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="55">
+      <c r="F4" s="54">
         <f>F3*2</f>
         <v>416</v>
       </c>
@@ -4175,7 +4249,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <f>1/Magistrats!I5</f>
+        <f>1/Magistrats!J5</f>
         <v>0.125</v>
       </c>
       <c r="C5" t="s">
@@ -4187,7 +4261,7 @@
       <c r="E5" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="54">
         <f>D3*8</f>
         <v>1664</v>
       </c>
@@ -4223,20 +4297,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="33">
-        <f>Fonctionnaires!I5/5</f>
+        <f>Fonctionnaires!J5/5</f>
         <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="33">
-        <f>Fonctionnaires!I4/Listes!B10</f>
+        <f>Fonctionnaires!J4/Listes!B10</f>
         <v>229.57142857142858</v>
       </c>
       <c r="E10" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="55">
         <f>D10</f>
         <v>229.57142857142858</v>
       </c>
@@ -4253,13 +4327,13 @@
         <v>28</v>
       </c>
       <c r="D11" s="33">
-        <f>Fonctionnaires!I4/Fonctionnaires!I5</f>
+        <f>Fonctionnaires!J4/Fonctionnaires!J5</f>
         <v>45.914285714285711</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="54">
         <f>F10*2</f>
         <v>459.14285714285717</v>
       </c>
@@ -4281,7 +4355,7 @@
       <c r="E12" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="55">
+      <c r="F12" s="54">
         <f>D10*7</f>
         <v>1607</v>
       </c>
@@ -4296,18 +4370,18 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="37" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="37" t="s">
         <v>30</v>
       </c>
     </row>
